--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.035417</v>
+        <v>0.05320733333333333</v>
       </c>
       <c r="H2">
-        <v>0.106251</v>
+        <v>0.159622</v>
       </c>
       <c r="I2">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
       <c r="J2">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N2">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q2">
-        <v>0.007677472952333331</v>
+        <v>0.005081850142444443</v>
       </c>
       <c r="R2">
-        <v>0.06909725657099999</v>
+        <v>0.045736651282</v>
       </c>
       <c r="S2">
-        <v>0.00232774592519392</v>
+        <v>0.001076805581617315</v>
       </c>
       <c r="T2">
-        <v>0.002327745925193921</v>
+        <v>0.001076805581617315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.035417</v>
+        <v>0.05320733333333333</v>
       </c>
       <c r="H3">
-        <v>0.106251</v>
+        <v>0.159622</v>
       </c>
       <c r="I3">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
       <c r="J3">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.038293</v>
       </c>
       <c r="O3">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P3">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q3">
-        <v>0.01225774106033333</v>
+        <v>0.01841493391622222</v>
       </c>
       <c r="R3">
-        <v>0.110319669543</v>
+        <v>0.165734405246</v>
       </c>
       <c r="S3">
-        <v>0.003716445109272761</v>
+        <v>0.003901985117680762</v>
       </c>
       <c r="T3">
-        <v>0.003716445109272762</v>
+        <v>0.003901985117680762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.035417</v>
+        <v>0.05320733333333333</v>
       </c>
       <c r="H4">
-        <v>0.106251</v>
+        <v>0.159622</v>
       </c>
       <c r="I4">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
       <c r="J4">
-        <v>0.03877518995102511</v>
+        <v>0.05437835303993056</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N4">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q4">
-        <v>0.107954805619</v>
+        <v>0.2331350962542222</v>
       </c>
       <c r="R4">
-        <v>0.9715932505709998</v>
+        <v>2.098215866288</v>
       </c>
       <c r="S4">
-        <v>0.03273099891655842</v>
+        <v>0.04939956234063248</v>
       </c>
       <c r="T4">
-        <v>0.03273099891655843</v>
+        <v>0.04939956234063248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.287242</v>
       </c>
       <c r="I5">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
       <c r="J5">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N5">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O5">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P5">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q5">
-        <v>0.165271278298</v>
+        <v>0.072818415278</v>
       </c>
       <c r="R5">
-        <v>1.487441504682</v>
+        <v>0.655365737502</v>
       </c>
       <c r="S5">
-        <v>0.05010887657934884</v>
+        <v>0.01542967104853686</v>
       </c>
       <c r="T5">
-        <v>0.05010887657934884</v>
+        <v>0.01542967104853686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.287242</v>
       </c>
       <c r="I6">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
       <c r="J6">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.038293</v>
       </c>
       <c r="O6">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P6">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q6">
         <v>0.263869706434</v>
@@ -818,10 +818,10 @@
         <v>2.374827357906</v>
       </c>
       <c r="S6">
-        <v>0.08000309968492766</v>
+        <v>0.05591199361325119</v>
       </c>
       <c r="T6">
-        <v>0.08000309968492768</v>
+        <v>0.05591199361325119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.287242</v>
       </c>
       <c r="I7">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
       <c r="J7">
-        <v>0.834705019378289</v>
+        <v>0.779193676083227</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N7">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O7">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P7">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q7">
-        <v>2.323919450298</v>
+        <v>3.340619612752</v>
       </c>
       <c r="R7">
-        <v>20.915275052682</v>
+        <v>30.065576514768</v>
       </c>
       <c r="S7">
-        <v>0.7045930431140125</v>
+        <v>0.7078520114214389</v>
       </c>
       <c r="T7">
-        <v>0.7045930431140125</v>
+        <v>0.7078520114214389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1155623333333333</v>
+        <v>0.162844</v>
       </c>
       <c r="H8">
-        <v>0.346687</v>
+        <v>0.488532</v>
       </c>
       <c r="I8">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
       <c r="J8">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N8">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O8">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P8">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q8">
-        <v>0.02505087072522222</v>
+        <v>0.01555328472133333</v>
       </c>
       <c r="R8">
-        <v>0.225457836527</v>
+        <v>0.139979562492</v>
       </c>
       <c r="S8">
-        <v>0.007595215589196382</v>
+        <v>0.003295623312567628</v>
       </c>
       <c r="T8">
-        <v>0.007595215589196382</v>
+        <v>0.003295623312567628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1155623333333333</v>
+        <v>0.162844</v>
       </c>
       <c r="H9">
-        <v>0.346687</v>
+        <v>0.488532</v>
       </c>
       <c r="I9">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
       <c r="J9">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.038293</v>
       </c>
       <c r="O9">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P9">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q9">
-        <v>0.03999585392122222</v>
+        <v>0.05635992843066666</v>
       </c>
       <c r="R9">
-        <v>0.359962685291</v>
+        <v>0.5072393558759999</v>
       </c>
       <c r="S9">
-        <v>0.01212641015706625</v>
+        <v>0.01194224225677424</v>
       </c>
       <c r="T9">
-        <v>0.01212641015706625</v>
+        <v>0.01194224225677424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1155623333333333</v>
+        <v>0.162844</v>
       </c>
       <c r="H10">
-        <v>0.346687</v>
+        <v>0.488532</v>
       </c>
       <c r="I10">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
       <c r="J10">
-        <v>0.1265197906706859</v>
+        <v>0.1664279708768425</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N10">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O10">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P10">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q10">
-        <v>0.3522463571696666</v>
+        <v>0.7135229156586667</v>
       </c>
       <c r="R10">
-        <v>3.170217214526999</v>
+        <v>6.421706240928</v>
       </c>
       <c r="S10">
-        <v>0.1067981649244232</v>
+        <v>0.1511901053075006</v>
       </c>
       <c r="T10">
-        <v>0.1067981649244232</v>
+        <v>0.1511901053075006</v>
       </c>
     </row>
   </sheetData>
